--- a/public/template/Upload Jawaban.xlsx
+++ b/public/template/Upload Jawaban.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\app_development\anbuso\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8471EE8E-D83F-4E88-8603-3FBB23DDF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D675EB56-83AB-4EA7-A65E-54435F5EB2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilihan Ganda" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>No Soal</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Poin</t>
+  </si>
+  <si>
+    <t>Jawaban</t>
   </si>
 </sst>
 </file>
@@ -101,11 +104,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0B1AE51-B571-4D2A-94AC-DD1E6CC6EF2F}" name="Table1" displayName="Table1" ref="A1:C1048498" totalsRowShown="0">
-  <autoFilter ref="A1:C1048498" xr:uid="{B0B1AE51-B571-4D2A-94AC-DD1E6CC6EF2F}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B0B1AE51-B571-4D2A-94AC-DD1E6CC6EF2F}" name="Table1" displayName="Table1" ref="A1:D1048498" totalsRowShown="0">
+  <autoFilter ref="A1:D1048498" xr:uid="{B0B1AE51-B571-4D2A-94AC-DD1E6CC6EF2F}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9946A146-EB6C-4457-BBEA-7231CB3D529C}" name="No Soal"/>
     <tableColumn id="2" xr3:uid="{DBAEDD4D-CBB4-4E0C-A6FB-8DFDB4E51C38}" name="Siswa"/>
+    <tableColumn id="4" xr3:uid="{35E7F804-50F2-4411-9A64-CCB3994E8BF3}" name="Jawaban"/>
     <tableColumn id="3" xr3:uid="{1F6DFA17-DC35-48DA-B415-78323C6BD223}" name="Poin"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -387,19 +391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +412,9 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -426,14 +434,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
